--- a/data/transportation/tsa/TSA_traveler_throughput.xlsx
+++ b/data/transportation/tsa/TSA_traveler_throughput.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18285\Documents\NSS\Capstone_Jeff\data\transportation\tsa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18285\Documents\NSS\carbon_emissions\data\transportation\tsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AECBAE1-A01D-4114-8D0A-4372E062DE2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBAEF9E-DA32-4CA4-9CD6-0211A4EADBCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSA_traveler_throughput" sheetId="1" r:id="rId1"/>
     <sheet name="months" sheetId="2" r:id="rId2"/>
-    <sheet name="months_groupby" sheetId="3" r:id="rId3"/>
+    <sheet name="TSA_month" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -15820,7 +15820,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
